--- a/knowledge_log.xlsx
+++ b/knowledge_log.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Science</t>
+  </si>
+  <si>
+    <t>2025-08-26 18:02:57</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -176,6 +182,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>530.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>1570.0</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/knowledge_log.xlsx
+++ b/knowledge_log.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,81 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>2025-08-27 12:03:33</t>
+  </si>
+  <si>
+    <t>Java Collections Framework</t>
+  </si>
+  <si>
+    <t>Collections &amp; Generics</t>
+  </si>
+  <si>
+    <t>2025-08-27 12:10:09</t>
+  </si>
+  <si>
+    <t>Generics and Type Safety</t>
+  </si>
+  <si>
+    <t>2025-08-27 12:17:54</t>
+  </si>
+  <si>
+    <t>Executor Framework</t>
+  </si>
+  <si>
+    <t>Multithreading &amp; Concurrency</t>
+  </si>
+  <si>
+    <t>2025-08-27 13:08:50</t>
+  </si>
+  <si>
+    <t>Synchronization &amp; Locks</t>
+  </si>
+  <si>
+    <t>2025-08-27 13:28:36</t>
+  </si>
+  <si>
+    <t>Lambda Expressions</t>
+  </si>
+  <si>
+    <t>Functional Programming &amp; Java 8+</t>
+  </si>
+  <si>
+    <t>2025-08-27 13:38:01</t>
+  </si>
+  <si>
+    <t>Streams API</t>
+  </si>
+  <si>
+    <t>2025-08-27 13:52:18</t>
+  </si>
+  <si>
+    <t>Optional &amp; Null Safety</t>
+  </si>
+  <si>
+    <t>2025-08-27 13:56:49</t>
+  </si>
+  <si>
+    <t>Unit Testing with JUnit</t>
+  </si>
+  <si>
+    <t>Testing &amp; Debugging</t>
+  </si>
+  <si>
+    <t>2025-08-27 14:19:08</t>
+  </si>
+  <si>
+    <t>Logging (SLF4J, Logback)</t>
+  </si>
+  <si>
+    <t>2025-08-27 14:22:22</t>
+  </si>
+  <si>
+    <t>Maven Basics</t>
+  </si>
+  <si>
+    <t>Build Tools</t>
   </si>
 </sst>
 </file>
@@ -107,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -205,6 +280,236 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>601.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>1419.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>650.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>1505.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>762.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>1541.0</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>641.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>1541.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>562.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>1030.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>923.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>610.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>1010.0</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>794.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>980.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>1112.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>726.0</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/knowledge_log.xlsx
+++ b/knowledge_log.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Build Tools</t>
+  </si>
+  <si>
+    <t>2025-09-23 05:00:13</t>
+  </si>
+  <si>
+    <t>Gradle Basics</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -510,6 +516,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>486.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
